--- a/export/exp_danhsach_28052019.xlsx
+++ b/export/exp_danhsach_28052019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>MSSV</t>
   </si>
@@ -38,96 +38,24 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>B1203094</t>
-  </si>
-  <si>
-    <t>jdfosf</t>
+    <t>B1507152</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Tài</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>DI15V7A2</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>B1234932</t>
-  </si>
-  <si>
-    <t>ư3www</t>
-  </si>
-  <si>
-    <t>B1240020</t>
-  </si>
-  <si>
-    <t>zádfs</t>
-  </si>
-  <si>
-    <t>Pê �</t>
-  </si>
-  <si>
-    <t>Kiên Giang</t>
-  </si>
-  <si>
-    <t>B1402000</t>
-  </si>
-  <si>
-    <t>ewr</t>
+    <t>25-10-1997</t>
+  </si>
+  <si>
+    <t>DI15V7A1</t>
   </si>
   <si>
     <t>Sóc Trăng</t>
   </si>
   <si>
-    <t>B1409234</t>
-  </si>
-  <si>
-    <t>rêtrter</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>DI15V7A1</t>
-  </si>
-  <si>
-    <t>Vĩnh Long</t>
-  </si>
-  <si>
-    <t>B1500028</t>
-  </si>
-  <si>
-    <t>ưerwer</t>
-  </si>
-  <si>
-    <t>B1500048</t>
-  </si>
-  <si>
-    <t>Quách Đình Khang</t>
-  </si>
-  <si>
-    <t>B1502888</t>
-  </si>
-  <si>
-    <t>bjvobij</t>
-  </si>
-  <si>
-    <t>B1503989</t>
-  </si>
-  <si>
-    <t>Mới</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>B1507152</t>
-  </si>
-  <si>
-    <t>Đỗ Văn Tài</t>
-  </si>
-  <si>
     <t>B1507153</t>
   </si>
   <si>
@@ -135,36 +63,6 @@
   </si>
   <si>
     <t>Tân Lược Bình Tân Vĩnh Long</t>
-  </si>
-  <si>
-    <t>B1507238</t>
-  </si>
-  <si>
-    <t>oppofs</t>
-  </si>
-  <si>
-    <t>B1507239</t>
-  </si>
-  <si>
-    <t>vxc</t>
-  </si>
-  <si>
-    <t>B1508382</t>
-  </si>
-  <si>
-    <t>vsd</t>
-  </si>
-  <si>
-    <t>B1949233</t>
-  </si>
-  <si>
-    <t>idjfsio</t>
-  </si>
-  <si>
-    <t>B9324929</t>
-  </si>
-  <si>
-    <t>vds</t>
   </si>
 </sst>
 </file>
@@ -503,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,361 +443,39 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>799680910</v>
-      </c>
-      <c r="E2">
-        <v>35828</v>
+        <v>799680907</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>799680912</v>
-      </c>
-      <c r="E3">
-        <v>35830</v>
+        <v>799680906</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>799680918</v>
-      </c>
-      <c r="E4">
-        <v>35836</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>799680920</v>
-      </c>
-      <c r="E5">
-        <v>35838</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>799680915</v>
-      </c>
-      <c r="E6">
-        <v>35833</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>799680919</v>
-      </c>
-      <c r="E7">
-        <v>35837</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>799680908</v>
-      </c>
-      <c r="E8">
-        <v>35550</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>799680916</v>
-      </c>
-      <c r="E9">
-        <v>35834</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>389424923</v>
-      </c>
-      <c r="E10">
-        <v>35838</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>799680907</v>
-      </c>
-      <c r="E11">
-        <v>35464</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>799680906</v>
-      </c>
-      <c r="E12">
-        <v>35728</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>799680914</v>
-      </c>
-      <c r="E13">
-        <v>35832</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>799680913</v>
-      </c>
-      <c r="E14">
-        <v>35831</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>799680917</v>
-      </c>
-      <c r="E15">
-        <v>35835</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>799680909</v>
-      </c>
-      <c r="E16">
-        <v>35827</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>799680911</v>
-      </c>
-      <c r="E17">
-        <v>35829</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/export/exp_danhsach_28052019.xlsx
+++ b/export/exp_danhsach_28052019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>MSSV</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Nam</t>
   </si>
   <si>
+    <t>25-10-2000</t>
+  </si>
+  <si>
     <t>DI15V7A2</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>ư3www</t>
   </si>
   <si>
+    <t>25-10-1997</t>
+  </si>
+  <si>
     <t>B1240020</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>Pê �</t>
   </si>
   <si>
+    <t>4-1-1997</t>
+  </si>
+  <si>
     <t>Kiên Giang</t>
   </si>
   <si>
@@ -101,12 +110,18 @@
     <t>ưerwer</t>
   </si>
   <si>
+    <t>4-1-1998</t>
+  </si>
+  <si>
     <t>B1500048</t>
   </si>
   <si>
     <t>Quách Đình Khang</t>
   </si>
   <si>
+    <t>25-10-1998</t>
+  </si>
+  <si>
     <t>B1502888</t>
   </si>
   <si>
@@ -143,6 +158,9 @@
     <t>oppofs</t>
   </si>
   <si>
+    <t>2-10-1997</t>
+  </si>
+  <si>
     <t>B1507239</t>
   </si>
   <si>
@@ -161,10 +179,16 @@
     <t>idjfsio</t>
   </si>
   <si>
+    <t>25-10-1999</t>
+  </si>
+  <si>
     <t>B9324929</t>
   </si>
   <si>
     <t>vds</t>
+  </si>
+  <si>
+    <t>25-10-2001</t>
   </si>
 </sst>
 </file>
@@ -547,22 +571,22 @@
       <c r="D2">
         <v>799680910</v>
       </c>
-      <c r="E2">
-        <v>35828</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -570,183 +594,183 @@
       <c r="D3">
         <v>799680912</v>
       </c>
-      <c r="E3">
-        <v>35830</v>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>799680918</v>
       </c>
-      <c r="E4">
-        <v>35836</v>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>799680920</v>
       </c>
-      <c r="E5">
-        <v>35838</v>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>799680915</v>
       </c>
-      <c r="E6">
-        <v>35833</v>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>799680919</v>
       </c>
-      <c r="E7">
-        <v>35837</v>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>799680908</v>
       </c>
-      <c r="E8">
-        <v>35550</v>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>799680916</v>
       </c>
-      <c r="E9">
-        <v>35834</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>389424923</v>
       </c>
-      <c r="E10">
-        <v>35838</v>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -754,22 +778,22 @@
       <c r="D11">
         <v>799680907</v>
       </c>
-      <c r="E11">
-        <v>35464</v>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -777,45 +801,45 @@
       <c r="D12">
         <v>799680906</v>
       </c>
-      <c r="E12">
-        <v>35728</v>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>799680914</v>
       </c>
-      <c r="E13">
-        <v>35832</v>
+      <c r="E13" t="s">
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -823,68 +847,68 @@
       <c r="D14">
         <v>799680913</v>
       </c>
-      <c r="E14">
-        <v>35831</v>
+      <c r="E14" t="s">
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>799680917</v>
       </c>
-      <c r="E15">
-        <v>35835</v>
+      <c r="E15" t="s">
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>799680909</v>
       </c>
-      <c r="E16">
-        <v>35827</v>
+      <c r="E16" t="s">
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -892,14 +916,14 @@
       <c r="D17">
         <v>799680911</v>
       </c>
-      <c r="E17">
-        <v>35829</v>
+      <c r="E17" t="s">
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/export/exp_danhsach_28052019.xlsx
+++ b/export/exp_danhsach_28052019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>MSSV</t>
   </si>
@@ -38,6 +38,42 @@
     <t>Địa chỉ</t>
   </si>
   <si>
+    <t>B1409234</t>
+  </si>
+  <si>
+    <t>rêtrter</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>25-10-1997</t>
+  </si>
+  <si>
+    <t>DI15V7A1</t>
+  </si>
+  <si>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t>B1500048</t>
+  </si>
+  <si>
+    <t>Quách Đình Khang</t>
+  </si>
+  <si>
+    <t>25-10-1998</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>B1502888</t>
+  </si>
+  <si>
+    <t>bjvobij</t>
+  </si>
+  <si>
     <t>B1507152</t>
   </si>
   <si>
@@ -47,12 +83,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>25-10-1997</t>
-  </si>
-  <si>
-    <t>DI15V7A1</t>
-  </si>
-  <si>
     <t>Sóc Trăng</t>
   </si>
   <si>
@@ -63,6 +93,12 @@
   </si>
   <si>
     <t>Tân Lược Bình Tân Vĩnh Long</t>
+  </si>
+  <si>
+    <t>B1508382</t>
+  </si>
+  <si>
+    <t>vsd</t>
   </si>
 </sst>
 </file>
@@ -401,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>799680907</v>
+        <v>799680915</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -466,16 +502,108 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>799680906</v>
+        <v>799680908</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>799680916</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>799680907</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>799680906</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>799680917</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
